--- a/web2/data/test (1).xlsx
+++ b/web2/data/test (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{909C2F85-41BC-4CDB-9EE8-72132960477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA2122C-81B1-45AB-BFEC-2C8618928B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9572BA7-72B4-4377-B33E-DE8C640CC9F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19706" uniqueCount="5686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19712" uniqueCount="5688">
   <si>
     <t>Gnad, Jan-Philipp</t>
   </si>
@@ -17094,6 +17094,12 @@
   </si>
   <si>
     <t>ausg.</t>
+  </si>
+  <si>
+    <t>Test,Terster</t>
+  </si>
+  <si>
+    <t>2:00,00</t>
   </si>
 </sst>
 </file>
@@ -17465,10 +17471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1FF766-918F-4C5E-87A4-40908D456588}">
-  <dimension ref="A1:U2879"/>
+  <dimension ref="A1:U2880"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1694" workbookViewId="0">
-      <selection activeCell="S1702" sqref="S1702"/>
+    <sheetView tabSelected="1" topLeftCell="A2868" workbookViewId="0">
+      <selection activeCell="M2881" sqref="M2881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -104870,7 +104876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2865" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2865" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2865" t="s">
         <v>7</v>
       </c>
@@ -104911,7 +104917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2866" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2866" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2866" t="s">
         <v>8</v>
       </c>
@@ -104949,7 +104955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2867" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2867" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2867" t="s">
         <v>8</v>
       </c>
@@ -104987,7 +104993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2868" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2868" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2868" t="s">
         <v>7</v>
       </c>
@@ -105025,7 +105031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2869" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2869" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2869" t="s">
         <v>8</v>
       </c>
@@ -105066,7 +105072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2870" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2870" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2870" t="s">
         <v>8</v>
       </c>
@@ -105104,7 +105110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2871" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2871" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2871" t="s">
         <v>7</v>
       </c>
@@ -105142,7 +105148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2872" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2872" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2872" t="s">
         <v>7</v>
       </c>
@@ -105180,7 +105186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2873" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2873" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2873" t="s">
         <v>7</v>
       </c>
@@ -105218,7 +105224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2874" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2874" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2874" t="s">
         <v>7</v>
       </c>
@@ -105259,7 +105265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2875" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2875" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2875" t="s">
         <v>7</v>
       </c>
@@ -105300,7 +105306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2876" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2876" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2876" t="s">
         <v>7</v>
       </c>
@@ -105341,7 +105347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2877" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2877" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2877" t="s">
         <v>7</v>
       </c>
@@ -105379,7 +105385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2878" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2878" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2878" t="s">
         <v>7</v>
       </c>
@@ -105411,7 +105417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2879" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2879" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2879" t="s">
         <v>8</v>
       </c>
@@ -105450,6 +105456,50 @@
       </c>
       <c r="O2879">
         <v>22</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2880" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2880" t="s">
+        <v>5686</v>
+      </c>
+      <c r="D2880" s="1" t="s">
+        <v>5687</v>
+      </c>
+      <c r="J2880">
+        <v>45788</v>
+      </c>
+      <c r="K2880" t="s">
+        <v>5601</v>
+      </c>
+      <c r="L2880">
+        <v>1</v>
+      </c>
+      <c r="M2880" t="s">
+        <v>5611</v>
+      </c>
+      <c r="N2880" t="s">
+        <v>5679</v>
+      </c>
+      <c r="P2880">
+        <v>100</v>
+      </c>
+      <c r="Q2880">
+        <v>100</v>
+      </c>
+      <c r="R2880">
+        <v>100</v>
+      </c>
+      <c r="S2880">
+        <v>100</v>
+      </c>
+      <c r="T2880">
+        <v>100</v>
+      </c>
+      <c r="U2880">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/web2/data/test (1).xlsx
+++ b/web2/data/test (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA2122C-81B1-45AB-BFEC-2C8618928B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF750F-036D-491C-8B3E-EF3D7613DB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9572BA7-72B4-4377-B33E-DE8C640CC9F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19712" uniqueCount="5688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19706" uniqueCount="5686">
   <si>
     <t>Gnad, Jan-Philipp</t>
   </si>
@@ -17094,12 +17094,6 @@
   </si>
   <si>
     <t>ausg.</t>
-  </si>
-  <si>
-    <t>Test,Terster</t>
-  </si>
-  <si>
-    <t>2:00,00</t>
   </si>
 </sst>
 </file>
@@ -17471,10 +17465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1FF766-918F-4C5E-87A4-40908D456588}">
-  <dimension ref="A1:U2880"/>
+  <dimension ref="A1:U2879"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2868" workbookViewId="0">
-      <selection activeCell="M2881" sqref="M2881"/>
+      <selection activeCell="E2883" sqref="E2883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -104876,7 +104870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2865" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2865" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2865" t="s">
         <v>7</v>
       </c>
@@ -104917,7 +104911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2866" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2866" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2866" t="s">
         <v>8</v>
       </c>
@@ -104955,7 +104949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2867" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2867" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2867" t="s">
         <v>8</v>
       </c>
@@ -104993,7 +104987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2868" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2868" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2868" t="s">
         <v>7</v>
       </c>
@@ -105031,7 +105025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2869" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2869" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2869" t="s">
         <v>8</v>
       </c>
@@ -105072,7 +105066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2870" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2870" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2870" t="s">
         <v>8</v>
       </c>
@@ -105110,7 +105104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2871" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2871" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2871" t="s">
         <v>7</v>
       </c>
@@ -105148,7 +105142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2872" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2872" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2872" t="s">
         <v>7</v>
       </c>
@@ -105186,7 +105180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2873" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2873" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2873" t="s">
         <v>7</v>
       </c>
@@ -105224,7 +105218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2874" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2874" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2874" t="s">
         <v>7</v>
       </c>
@@ -105265,7 +105259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2875" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2875" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2875" t="s">
         <v>7</v>
       </c>
@@ -105306,7 +105300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2876" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2876" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2876" t="s">
         <v>7</v>
       </c>
@@ -105347,7 +105341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2877" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2877" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2877" t="s">
         <v>7</v>
       </c>
@@ -105385,7 +105379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2878" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2878" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2878" t="s">
         <v>7</v>
       </c>
@@ -105417,7 +105411,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2879" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2879" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2879" t="s">
         <v>8</v>
       </c>
@@ -105456,50 +105450,6 @@
       </c>
       <c r="O2879">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2880" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2880" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2880" t="s">
-        <v>5686</v>
-      </c>
-      <c r="D2880" s="1" t="s">
-        <v>5687</v>
-      </c>
-      <c r="J2880">
-        <v>45788</v>
-      </c>
-      <c r="K2880" t="s">
-        <v>5601</v>
-      </c>
-      <c r="L2880">
-        <v>1</v>
-      </c>
-      <c r="M2880" t="s">
-        <v>5611</v>
-      </c>
-      <c r="N2880" t="s">
-        <v>5679</v>
-      </c>
-      <c r="P2880">
-        <v>100</v>
-      </c>
-      <c r="Q2880">
-        <v>100</v>
-      </c>
-      <c r="R2880">
-        <v>100</v>
-      </c>
-      <c r="S2880">
-        <v>100</v>
-      </c>
-      <c r="T2880">
-        <v>100</v>
-      </c>
-      <c r="U2880">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
